--- a/src/test/resources/excelTest.xlsx
+++ b/src/test/resources/excelTest.xlsx
@@ -10,11 +10,11 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC655F3E-7AB5-4883-B9AE-5A0605A2270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="5415" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="5415" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="entidadTest" r:id="rId5" sheetId="1"/>
-    <sheet name="MIT-FS.Audit4Improve-API" r:id="rId6" sheetId="2"/>
+    <sheet name="entidadTest" r:id="rId5" sheetId="3"/>
+    <sheet name="MIT-FS.Audit4Improve-API" r:id="rId6" sheetId="4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="122">
   <si>
     <t xml:space="preserve">Métricas guardadas el día </t>
   </si>
@@ -383,6 +383,15 @@
   </si>
   <si>
     <t>Fri Mar 08 15:38:20 CET 2024</t>
+  </si>
+  <si>
+    <t>Sun May 26 15:19:07 CEST 2024</t>
+  </si>
+  <si>
+    <t>Sun May 26 13:19:07 CEST 2024</t>
+  </si>
+  <si>
+    <t>Sun May 26 15:19:08 CEST 2024</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,6 +543,24 @@
       <name val="Serif"/>
       <sz val="10.0"/>
       <color rgb="FF00FF00"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Serif"/>
+      <sz val="10.0"/>
+      <color rgb="FF00FF00"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Dialog"/>
+      <sz val="16.0"/>
+      <color rgb="FFFF0000"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Dialog"/>
+      <sz val="12.0"/>
+      <color rgb="FFFFC800"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -572,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -597,6 +624,9 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,21 +905,21 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="21.9375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.55859375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.60546875"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.703125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="32.12109375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.1328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.55859375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.55859375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.84375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.60546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.60546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -897,14 +927,14 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="24">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="24">
         <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
@@ -915,14 +945,14 @@
       </c>
       <c r="E2" s="0"/>
       <c r="F2" t="s" s="0">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="24">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="24">
         <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
@@ -933,7 +963,7 @@
       </c>
       <c r="E3" s="0"/>
       <c r="F3" t="s" s="0">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -942,10 +972,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="5">
+      <c r="A5" t="s" s="25">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s" s="25">
         <v>10</v>
       </c>
       <c r="C5" t="s" s="0">
@@ -954,19 +984,19 @@
       <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0"/>
       <c r="G5" t="s" s="0">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="26">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" t="s" s="26">
         <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
@@ -975,19 +1005,19 @@
       <c r="D6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" t="s" s="0">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" t="s" s="25">
         <v>20</v>
       </c>
       <c r="C7" t="s" s="0">
@@ -996,12 +1026,12 @@
       <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" t="s" s="0">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1009,312 +1039,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="21.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.52734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="51.4921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="24.55859375" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="23">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="23">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="23">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s" s="23">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="23">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s" s="23">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="23">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s" s="23">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="23">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s" s="23">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="23">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s" s="23">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="23">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s" s="23">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="23">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s" s="23">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="23">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s" s="23">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="23">
-        <v>106</v>
-      </c>
-      <c r="B11" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="23">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="23">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="23">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s" s="23">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="23">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s" s="23">
-        <v>92</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s" s="23">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
